--- a/biology/Médecine/Fanny_Friedman/Fanny_Friedman.xlsx
+++ b/biology/Médecine/Fanny_Friedman/Fanny_Friedman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fanny Friedman (parfois orthographié Fannie Friedman, née Frances Friedman), née le 21 juin 1926[1], est un médecin et une personnalité politique de l'Eswatini.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fanny Friedman (parfois orthographié Fannie Friedman, née Frances Friedman), née le 21 juin 1926, est un médecin et une personnalité politique de l'Eswatini.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fanny Friedman exerce en tant que médecin dans plusieurs hôpitaux de l'Eswatini et participe aux actions de plusieurs Organisations non gouvernementales[2]. 
-Elle est députée de 1983 à 1987 et sénatrice de 1987 à 1997[1].
-En novembre 1987, elle devient la première femme de l'histoire de son pays à occuper un poste de ministre, après qu'elle a été nommée à la tête du ministère de la Santé[3]. Elle quitte ce poste en 1993[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fanny Friedman exerce en tant que médecin dans plusieurs hôpitaux de l'Eswatini et participe aux actions de plusieurs Organisations non gouvernementales. 
+Elle est députée de 1983 à 1987 et sénatrice de 1987 à 1997.
+En novembre 1987, elle devient la première femme de l'histoire de son pays à occuper un poste de ministre, après qu'elle a été nommée à la tête du ministère de la Santé. Elle quitte ce poste en 1993.
 </t>
         </is>
       </c>
